--- a/biology/Zoologie/Ermite_vert/Ermite_vert.xlsx
+++ b/biology/Zoologie/Ermite_vert/Ermite_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis guy
 L'Ermite vert (Phaethornis guy) est une espèce de colibris présente en Colombie, Costa Rica, Équateur, Panama, Pérou, Trinité-et-Tobago, Venezuela.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de l'espèce comprend le sud de Amérique centrale : Costa Rica et Panama ; et le nord-ouest de l'Amérique du Sud : au nord-est jusqu'au Venezuela et Trinité-et-Tobago, et au sud jusqu'au nord des Andes et à l'est du Pérou.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts tropicales et subtropicales humides de montagne.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ermite vert mesure 13 à 15 cm de longueur et a un bec très incurvé de plus de 4 cm. La partie inférieure du bec est pratiquement rouge. Le mâle est principalement vert foncé et a le croupion vert bleuté. Son ventre et son poitrail sont gris foncé (ou vert foncé dans la sous-espèce (Phaethornis guy coruscus). Les plumes de sa queue sont noires et les plumes centrales peuvent être assez longues. La femelle a le poitrail et le ventre plus clair (grisâtre), et les plumes centrales de sa queue sont parfois plus longues que celles du mâle. Les deux sexes ont le masque caractéristique des espèces du genre Phaethornis[1] (les deux lignes claires soulignant chaque œil sont très pâles chez le mâle et peuvent même être absentes[2]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ermite vert mesure 13 à 15 cm de longueur et a un bec très incurvé de plus de 4 cm. La partie inférieure du bec est pratiquement rouge. Le mâle est principalement vert foncé et a le croupion vert bleuté. Son ventre et son poitrail sont gris foncé (ou vert foncé dans la sous-espèce (Phaethornis guy coruscus). Les plumes de sa queue sont noires et les plumes centrales peuvent être assez longues. La femelle a le poitrail et le ventre plus clair (grisâtre), et les plumes centrales de sa queue sont parfois plus longues que celles du mâle. Les deux sexes ont le masque caractéristique des espèces du genre Phaethornis (les deux lignes claires soulignant chaque œil sont très pâles chez le mâle et peuvent même être absentes).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est plutôt solitaire.
 </t>
@@ -636,9 +656,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles forment des leks lâches lors des parades nuptiales[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles forment des leks lâches lors des parades nuptiales.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des quatre sous-espèces suivantes :
 Phaethornis guy apicalis (Tschudi, 1844) ;
